--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/NORTH_DAKOTA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/NORTH_DAKOTA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C10">
@@ -550,7 +550,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C13">
@@ -633,7 +633,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -812,7 +812,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C37">
@@ -1022,7 +1022,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C47">
@@ -1035,7 +1035,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C48">
@@ -1131,7 +1131,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C55">
@@ -1170,7 +1170,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C58">
@@ -1279,7 +1279,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C66">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C91">
@@ -1984,41 +1984,6 @@
       </c>
       <c r="D115">
         <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/NORTH_DAKOTA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/NORTH_DAKOTA_2019.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Rodeo</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Temascalapa</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>León</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Cuetzala Del Progreso</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Ixtlahuacán De Los Membrillos</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Jamay</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1251,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -1264,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1360,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -1373,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1386,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1417,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Los Aldamas</t>
@@ -1430,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1443,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1474,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -1487,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>San Francisco Cahuacuá</t>
@@ -1500,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>San Juan Teposcolula</t>
@@ -1513,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec - Distr. 22 -</t>
@@ -1526,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Santa María Atzompa</t>
@@ -1539,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Santa María Colotepec</t>
@@ -1552,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -1565,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1596,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1609,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1640,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1671,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Othón P. Blanco</t>
@@ -1684,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1715,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1746,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -1759,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1790,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -1803,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Santa Ana</t>
@@ -1816,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1847,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -1860,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1891,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -1904,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -1917,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -1930,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1961,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
